--- a/main/report/swing_trading/[2021][HuyNguyen]-TradingView.xlsx
+++ b/main/report/swing_trading/[2021][HuyNguyen]-TradingView.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
   <si>
     <t>DAY</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>strategy 3 comment</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -555,21 +558,21 @@
         <v>16</v>
       </c>
       <c r="J2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -596,27 +599,27 @@
         <v>16</v>
       </c>
       <c r="J3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -637,27 +640,26 @@
         <v>16</v>
       </c>
       <c r="J4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
+        <f>SUM(J4:J5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -684,20 +686,19 @@
         <v>18</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <f>SUM(J5:J6)</f>
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -724,143 +725,104 @@
         <v>18</v>
       </c>
       <c r="L6" s="1">
-        <v>6</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUM(J6:J7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1">
-        <v>11</v>
-      </c>
-      <c r="M7" s="1">
-        <f>SUM(J7:J8)</f>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1">
-        <v>16</v>
-      </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1">
-        <v>17</v>
-      </c>
-      <c r="M9" s="1">
+        <v>17</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.06</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="G9" r:id="rId3"/>
-    <hyperlink ref="H9" r:id="rId4"/>
-    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="I8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1149,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1">
         <v>4</v>
